--- a/biology/Médecine/Paul_Sédallian/Paul_Sédallian.xlsx
+++ b/biology/Médecine/Paul_Sédallian/Paul_Sédallian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9dallian</t>
+          <t>Paul_Sédallian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Sédallian, né le 5 septembre 1894 à Lussan (Gard) et mort le 5 février 1960 à Saint-Rambert-l'Île-Barbe (Rhône)[1], est un bactériologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Sédallian, né le 5 septembre 1894 à Lussan (Gard) et mort le 5 février 1960 à Saint-Rambert-l'Île-Barbe (Rhône), est un bactériologiste français.
 Il est connu pour avoir œuvré au rapprochement de la recherche scientifique et de ses applications médicales pratiques. Il est le fondateur et le premier directeur de l'Institut Pasteur de Lyon.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9dallian</t>
+          <t>Paul_Sédallian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était correspondant national pour la division d’hygiène de l'Académie nationale de médecine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était correspondant national pour la division d’hygiène de l'Académie nationale de médecine.
 Il a été conseiller municipal de Saint-Rambert-l'Île-Barbe.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_S%C3%A9dallian</t>
+          <t>Paul_Sédallian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un quai et un square portent son nom à Lyon.
 </t>
